--- a/全部数据.xlsx
+++ b/全部数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>学工号</t>
   </si>
@@ -24,15 +24,6 @@
   </si>
   <si>
     <t>职称</t>
-  </si>
-  <si>
-    <t>201400834126</t>
-  </si>
-  <si>
-    <t>hua1054921935@sina.com</t>
-  </si>
-  <si>
-    <t>教授</t>
   </si>
 </sst>
 </file>
@@ -368,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,17 +378,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/全部数据.xlsx
+++ b/全部数据.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>学工号</t>
   </si>
@@ -24,6 +24,30 @@
   </si>
   <si>
     <t>职称</t>
+  </si>
+  <si>
+    <t>201400834129</t>
+  </si>
+  <si>
+    <t>hua26804654171@sina.com</t>
+  </si>
+  <si>
+    <t>教授</t>
+  </si>
+  <si>
+    <t>2014008341210</t>
+  </si>
+  <si>
+    <t>hua1389567654@sina.com</t>
+  </si>
+  <si>
+    <t>201400834124</t>
+  </si>
+  <si>
+    <t>hua1054921935@sina.com</t>
+  </si>
+  <si>
+    <t>201400834100</t>
   </si>
 </sst>
 </file>
@@ -359,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -378,6 +402,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/全部数据.xlsx
+++ b/全部数据.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="表格1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表格1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>学工号</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>职称</t>
+  </si>
+  <si>
+    <t>绩点</t>
   </si>
   <si>
     <t>201400834129</t>
@@ -383,7 +386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +394,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,49 +404,52 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/全部数据.xlsx
+++ b/全部数据.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="表格1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="表格1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>学工号</t>
   </si>
@@ -38,10 +38,7 @@
     <t>教授</t>
   </si>
   <si>
-    <t>2014008341210</t>
-  </si>
-  <si>
-    <t>hua1389567654@sina.com</t>
+    <t>6030</t>
   </si>
   <si>
     <t>201400834124</t>
@@ -50,7 +47,7 @@
     <t>hua1054921935@sina.com</t>
   </si>
   <si>
-    <t>201400834100</t>
+    <t>2000</t>
   </si>
 </sst>
 </file>
@@ -386,7 +383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -418,38 +415,22 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
